--- a/biology/Médecine/Maladies_du_squelette/Maladies_du_squelette.xlsx
+++ b/biology/Médecine/Maladies_du_squelette/Maladies_du_squelette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maladies du squelette peuvent être classées selon leur origine ou bien selon le résultat au niveau de l'os.
 </t>
@@ -511,7 +523,9 @@
           <t>Décalcifications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>ostéoporose
 ostéomalacie
@@ -545,7 +559,9 @@
           <t>Tumeurs osseuses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>bénignes
 ostéome
@@ -602,7 +618,9 @@
           <t>densifications osseuses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>maladie de Paget
 maladie d'Albert Schoenberg
@@ -644,7 +662,9 @@
           <t>ostéites infectieuses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>ostéomyélite staphylococcique
 ostéite tuberculeuse
@@ -683,7 +703,9 @@
           <t>nécroses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>ostéonécrose
 ostéochondrite
@@ -716,7 +738,9 @@
           <t>troubles de la croissance squelettique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>insuffisance thyroïdienne
 maladie de Cushing
@@ -751,7 +775,9 @@
           <t>autres</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>maladie de Hurler
 maladie de Morquio
